--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Apoe-Sorl1.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H2">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I2">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J2">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.060837</v>
+        <v>0.111657</v>
       </c>
       <c r="N2">
-        <v>0.121674</v>
+        <v>0.223314</v>
       </c>
       <c r="O2">
-        <v>0.001195930631606881</v>
+        <v>0.0004795212148781231</v>
       </c>
       <c r="P2">
-        <v>0.000810577400195534</v>
+        <v>0.0003199968420168896</v>
       </c>
       <c r="Q2">
-        <v>1.9407015471585</v>
+        <v>3.1044870542595</v>
       </c>
       <c r="R2">
-        <v>7.762806188634</v>
+        <v>12.417948217038</v>
       </c>
       <c r="S2">
-        <v>5.757600365860716E-06</v>
+        <v>4.448905331031311E-06</v>
       </c>
       <c r="T2">
-        <v>2.610736660100902E-06</v>
+        <v>1.990042307666044E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H3">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I3">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J3">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.043359</v>
       </c>
       <c r="O3">
-        <v>0.0068367659366434</v>
+        <v>0.001493600267587414</v>
       </c>
       <c r="P3">
-        <v>0.006950730852035867</v>
+        <v>0.001495076820485504</v>
       </c>
       <c r="Q3">
-        <v>11.09439116295317</v>
+        <v>9.669775916258834</v>
       </c>
       <c r="R3">
-        <v>66.56634697771899</v>
+        <v>58.018655497553</v>
       </c>
       <c r="S3">
-        <v>3.29144224738458E-05</v>
+        <v>1.385733516417689E-05</v>
       </c>
       <c r="T3">
-        <v>2.238716234319754E-05</v>
+        <v>9.297798400835309E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H4">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I4">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J4">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.760696</v>
+        <v>29.427447</v>
       </c>
       <c r="N4">
-        <v>62.282088</v>
+        <v>88.282341</v>
       </c>
       <c r="O4">
-        <v>0.4081126991777774</v>
+        <v>0.1263788668529656</v>
       </c>
       <c r="P4">
-        <v>0.4149157007231575</v>
+        <v>0.126503803280843</v>
       </c>
       <c r="Q4">
-        <v>662.266627994268</v>
+        <v>818.1943653457246</v>
       </c>
       <c r="R4">
-        <v>3973.599767965608</v>
+        <v>4909.166192074347</v>
       </c>
       <c r="S4">
-        <v>0.001964787725974704</v>
+        <v>0.001172518747923922</v>
       </c>
       <c r="T4">
-        <v>0.001336375317727949</v>
+        <v>0.0007867200158064458</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H5">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I5">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J5">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.441373</v>
+        <v>0.578241</v>
       </c>
       <c r="N5">
-        <v>4.882746</v>
+        <v>1.156482</v>
       </c>
       <c r="O5">
-        <v>0.04799238545421348</v>
+        <v>0.002483308944466901</v>
       </c>
       <c r="P5">
-        <v>0.03252826042124975</v>
+        <v>0.001657175939929322</v>
       </c>
       <c r="Q5">
-        <v>77.8798487481465</v>
+        <v>16.0772875748235</v>
       </c>
       <c r="R5">
-        <v>311.519394992586</v>
+        <v>64.309150299294</v>
       </c>
       <c r="S5">
-        <v>0.0002310510064270506</v>
+        <v>2.303966135146813E-05</v>
       </c>
       <c r="T5">
-        <v>0.0001047681837053195</v>
+        <v>1.03058836797256E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H6">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I6">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J6">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.1802056666666666</v>
+        <v>194.164098</v>
       </c>
       <c r="N6">
-        <v>0.5406169999999999</v>
+        <v>582.492294</v>
       </c>
       <c r="O6">
-        <v>0.003542473770169563</v>
+        <v>0.8338555053303862</v>
       </c>
       <c r="P6">
-        <v>0.003601524749424765</v>
+        <v>0.8346798435349938</v>
       </c>
       <c r="Q6">
-        <v>5.748564460882832</v>
+        <v>5398.496544264784</v>
       </c>
       <c r="R6">
-        <v>34.49138676529699</v>
+        <v>32390.9792655887</v>
       </c>
       <c r="S6">
-        <v>1.705462485543623E-05</v>
+        <v>0.007736350526049293</v>
       </c>
       <c r="T6">
-        <v>1.15999196292862E-05</v>
+        <v>0.005190826857919557</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>31.9000205</v>
+        <v>27.8037835</v>
       </c>
       <c r="H7">
-        <v>63.800041</v>
+        <v>55.607567</v>
       </c>
       <c r="I7">
-        <v>0.004814326361157475</v>
+        <v>0.009277807097986399</v>
       </c>
       <c r="J7">
-        <v>0.003220835739401468</v>
+        <v>0.00621894358432765</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>27.07910933333334</v>
+        <v>8.221782333333335</v>
       </c>
       <c r="N7">
-        <v>81.23732800000001</v>
+        <v>24.665347</v>
       </c>
       <c r="O7">
-        <v>0.5323197450295892</v>
+        <v>0.03530919738971574</v>
       </c>
       <c r="P7">
-        <v>0.5411932058539365</v>
+        <v>0.03534410358173139</v>
       </c>
       <c r="Q7">
-        <v>863.8241428550747</v>
+        <v>228.5966559801249</v>
       </c>
       <c r="R7">
-        <v>5182.944857130448</v>
+        <v>1371.579935880749</v>
       </c>
       <c r="S7">
-        <v>0.002562760981060577</v>
+        <v>0.0003275919221665075</v>
       </c>
       <c r="T7">
-        <v>0.001743094419335614</v>
+        <v>0.0002198029862134203</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,40 +921,40 @@
         <v>13.537847</v>
       </c>
       <c r="I8">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J8">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.060837</v>
+        <v>0.111657</v>
       </c>
       <c r="N8">
-        <v>0.121674</v>
+        <v>0.223314</v>
       </c>
       <c r="O8">
-        <v>0.001195930631606881</v>
+        <v>0.0004795212148781231</v>
       </c>
       <c r="P8">
-        <v>0.000810577400195534</v>
+        <v>0.0003199968420168896</v>
       </c>
       <c r="Q8">
-        <v>0.274533999313</v>
+        <v>0.5038651274929999</v>
       </c>
       <c r="R8">
-        <v>1.647203995878</v>
+        <v>3.023190764958</v>
       </c>
       <c r="S8">
-        <v>8.144771447212329E-07</v>
+        <v>7.220671926296917E-07</v>
       </c>
       <c r="T8">
-        <v>5.539769709824641E-07</v>
+        <v>4.844824137820996E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>13.537847</v>
       </c>
       <c r="I9">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J9">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.043359</v>
       </c>
       <c r="O9">
-        <v>0.0068367659366434</v>
+        <v>0.001493600267587414</v>
       </c>
       <c r="P9">
-        <v>0.006950730852035867</v>
+        <v>0.001495076820485504</v>
       </c>
       <c r="Q9">
         <v>1.569426056452555</v>
@@ -1013,10 +1013,10 @@
         <v>14.124834508073</v>
       </c>
       <c r="S9">
-        <v>4.65611420264642E-06</v>
+        <v>2.249076200730578E-06</v>
       </c>
       <c r="T9">
-        <v>4.75037278685087E-06</v>
+        <v>2.263579922267648E-06</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>13.537847</v>
       </c>
       <c r="I10">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J10">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>20.760696</v>
+        <v>29.427447</v>
       </c>
       <c r="N10">
-        <v>62.282088</v>
+        <v>88.282341</v>
       </c>
       <c r="O10">
-        <v>0.4081126991777774</v>
+        <v>0.1263788668529656</v>
       </c>
       <c r="P10">
-        <v>0.4149157007231575</v>
+        <v>0.126503803280843</v>
       </c>
       <c r="Q10">
-        <v>93.68504202050399</v>
+        <v>132.794758362203</v>
       </c>
       <c r="R10">
-        <v>843.1653781845359</v>
+        <v>1195.152825259827</v>
       </c>
       <c r="S10">
-        <v>0.0002779412594392478</v>
+        <v>0.0001903023907282933</v>
       </c>
       <c r="T10">
-        <v>0.0002835679147287282</v>
+        <v>0.0001915296025417771</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>13.537847</v>
       </c>
       <c r="I11">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J11">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.441373</v>
+        <v>0.578241</v>
       </c>
       <c r="N11">
-        <v>4.882746</v>
+        <v>1.156482</v>
       </c>
       <c r="O11">
-        <v>0.04799238545421348</v>
+        <v>0.002483308944466901</v>
       </c>
       <c r="P11">
-        <v>0.03252826042124975</v>
+        <v>0.001657175939929322</v>
       </c>
       <c r="Q11">
-        <v>11.016978047977</v>
+        <v>2.609379395709</v>
       </c>
       <c r="R11">
-        <v>66.101868287862</v>
+        <v>15.656276374254</v>
       </c>
       <c r="S11">
-        <v>3.268475615562093E-05</v>
+        <v>3.739388086133297E-06</v>
       </c>
       <c r="T11">
-        <v>2.223095188090095E-05</v>
+        <v>2.509001633823003E-06</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>13.537847</v>
       </c>
       <c r="I12">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J12">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.1802056666666666</v>
+        <v>194.164098</v>
       </c>
       <c r="N12">
-        <v>0.5406169999999999</v>
+        <v>582.492294</v>
       </c>
       <c r="O12">
-        <v>0.003542473770169563</v>
+        <v>0.8338555053303862</v>
       </c>
       <c r="P12">
-        <v>0.003601524749424765</v>
+        <v>0.8346798435349938</v>
       </c>
       <c r="Q12">
-        <v>0.8131989146221108</v>
+        <v>876.1879505390019</v>
       </c>
       <c r="R12">
-        <v>7.318790231598999</v>
+        <v>7885.691554851018</v>
       </c>
       <c r="S12">
-        <v>2.41256795780944E-06</v>
+        <v>0.001255626831746656</v>
       </c>
       <c r="T12">
-        <v>2.461408091470871E-06</v>
+        <v>0.001263724050469708</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>13.537847</v>
       </c>
       <c r="I13">
-        <v>0.0006810404576951775</v>
+        <v>0.001505808648764821</v>
       </c>
       <c r="J13">
-        <v>0.0006834350067604023</v>
+        <v>0.001514022484498545</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>27.07910933333334</v>
+        <v>8.221782333333335</v>
       </c>
       <c r="N13">
-        <v>81.23732800000001</v>
+        <v>24.665347</v>
       </c>
       <c r="O13">
-        <v>0.5323197450295892</v>
+        <v>0.03530919738971574</v>
       </c>
       <c r="P13">
-        <v>0.5411932058539365</v>
+        <v>0.03534410358173139</v>
       </c>
       <c r="Q13">
-        <v>122.1976130169795</v>
+        <v>37.10174376532323</v>
       </c>
       <c r="R13">
-        <v>1099.778517152816</v>
+        <v>333.915693887909</v>
       </c>
       <c r="S13">
-        <v>0.0003625312827951316</v>
+        <v>5.316889481037819E-05</v>
       </c>
       <c r="T13">
-        <v>0.0003698703823014689</v>
+        <v>5.351176751718688E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H14">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I14">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J14">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.060837</v>
+        <v>0.111657</v>
       </c>
       <c r="N14">
-        <v>0.121674</v>
+        <v>0.223314</v>
       </c>
       <c r="O14">
-        <v>0.001195930631606881</v>
+        <v>0.0004795212148781231</v>
       </c>
       <c r="P14">
-        <v>0.000810577400195534</v>
+        <v>0.0003199968420168896</v>
       </c>
       <c r="Q14">
-        <v>163.875549578125</v>
+        <v>100.181307117528</v>
       </c>
       <c r="R14">
-        <v>983.25329746875</v>
+        <v>601.087842705168</v>
       </c>
       <c r="S14">
-        <v>0.0004861798175964348</v>
+        <v>0.0001435654726578222</v>
       </c>
       <c r="T14">
-        <v>0.0003306813757150459</v>
+        <v>9.63275266332459E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H15">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I15">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J15">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.043359</v>
       </c>
       <c r="O15">
-        <v>0.0068367659366434</v>
+        <v>0.001493600267587414</v>
       </c>
       <c r="P15">
-        <v>0.006950730852035867</v>
+        <v>0.001495076820485504</v>
       </c>
       <c r="Q15">
-        <v>936.8258873836804</v>
+        <v>312.042142193912</v>
       </c>
       <c r="R15">
-        <v>8431.432986453125</v>
+        <v>2808.379279745207</v>
       </c>
       <c r="S15">
-        <v>0.002779339811340679</v>
+        <v>0.0004471740180098956</v>
       </c>
       <c r="T15">
-        <v>0.002835604890812125</v>
+        <v>0.0004500577297461727</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H16">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I16">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J16">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.760696</v>
+        <v>29.427447</v>
       </c>
       <c r="N16">
-        <v>62.282088</v>
+        <v>88.282341</v>
       </c>
       <c r="O16">
-        <v>0.4081126991777774</v>
+        <v>0.1263788668529656</v>
       </c>
       <c r="P16">
-        <v>0.4149157007231575</v>
+        <v>0.126503803280843</v>
       </c>
       <c r="Q16">
-        <v>55922.719177875</v>
+        <v>26403.00299660369</v>
       </c>
       <c r="R16">
-        <v>503304.472600875</v>
+        <v>237627.0269694332</v>
       </c>
       <c r="S16">
-        <v>0.165909420162977</v>
+        <v>0.03783699488315119</v>
       </c>
       <c r="T16">
-        <v>0.1692680978865292</v>
+        <v>0.03808099605901465</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H17">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I17">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J17">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.441373</v>
+        <v>0.578241</v>
       </c>
       <c r="N17">
-        <v>4.882746</v>
+        <v>1.156482</v>
       </c>
       <c r="O17">
-        <v>0.04799238545421348</v>
+        <v>0.002483308944466901</v>
       </c>
       <c r="P17">
-        <v>0.03252826042124975</v>
+        <v>0.001657175939929322</v>
       </c>
       <c r="Q17">
-        <v>6576.283217453125</v>
+        <v>518.8115318246639</v>
       </c>
       <c r="R17">
-        <v>39457.69930471875</v>
+        <v>3112.869190947983</v>
       </c>
       <c r="S17">
-        <v>0.0195102697342877</v>
+        <v>0.0007434862344065467</v>
       </c>
       <c r="T17">
-        <v>0.01327015767170585</v>
+        <v>0.0004988538589424285</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H18">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I18">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J18">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.1802056666666666</v>
+        <v>194.164098</v>
       </c>
       <c r="N18">
-        <v>0.5406169999999999</v>
+        <v>582.492294</v>
       </c>
       <c r="O18">
-        <v>0.003542473770169563</v>
+        <v>0.8338555053303862</v>
       </c>
       <c r="P18">
-        <v>0.003601524749424765</v>
+        <v>0.8346798435349938</v>
       </c>
       <c r="Q18">
-        <v>485.416813157986</v>
+        <v>174208.631191379</v>
       </c>
       <c r="R18">
-        <v>4368.751318421874</v>
+        <v>1567877.680722411</v>
       </c>
       <c r="S18">
-        <v>0.001440116346135475</v>
+        <v>0.2496508100929607</v>
       </c>
       <c r="T18">
-        <v>0.00146927012586864</v>
+        <v>0.2512607447985594</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2693.682291666667</v>
+        <v>897.2237039999999</v>
       </c>
       <c r="H19">
-        <v>8081.046875</v>
+        <v>2691.671112</v>
       </c>
       <c r="I19">
-        <v>0.4065284429943834</v>
+        <v>0.2993933703106574</v>
       </c>
       <c r="J19">
-        <v>0.4079578034562477</v>
+        <v>0.3010264914681929</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>27.07910933333334</v>
+        <v>8.221782333333335</v>
       </c>
       <c r="N19">
-        <v>81.23732800000001</v>
+        <v>24.665347</v>
       </c>
       <c r="O19">
-        <v>0.5323197450295892</v>
+        <v>0.03530919738971574</v>
       </c>
       <c r="P19">
-        <v>0.5411932058539365</v>
+        <v>0.03534410358173139</v>
       </c>
       <c r="Q19">
-        <v>72942.51728530556</v>
+        <v>7376.777998595097</v>
       </c>
       <c r="R19">
-        <v>656482.65556775</v>
+        <v>66391.00198735586</v>
       </c>
       <c r="S19">
-        <v>0.2164031171220461</v>
+        <v>0.01057133960947126</v>
       </c>
       <c r="T19">
-        <v>0.2207839915056168</v>
+        <v>0.01063951149529699</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H20">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I20">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J20">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.060837</v>
+        <v>0.111657</v>
       </c>
       <c r="N20">
-        <v>0.121674</v>
+        <v>0.223314</v>
       </c>
       <c r="O20">
-        <v>0.001195930631606881</v>
+        <v>0.0004795212148781231</v>
       </c>
       <c r="P20">
-        <v>0.000810577400195534</v>
+        <v>0.0003199968420168896</v>
       </c>
       <c r="Q20">
-        <v>2.296420748559</v>
+        <v>2.3415357781725</v>
       </c>
       <c r="R20">
-        <v>9.185682994236</v>
+        <v>9.366143112690001</v>
       </c>
       <c r="S20">
-        <v>6.812934714991283E-06</v>
+        <v>3.355553050871707E-06</v>
       </c>
       <c r="T20">
-        <v>3.089269364502489E-06</v>
+        <v>1.500974293670708E-06</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H21">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I21">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J21">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.043359</v>
       </c>
       <c r="O21">
-        <v>0.0068367659366434</v>
+        <v>0.001493600267587414</v>
       </c>
       <c r="P21">
-        <v>0.006950730852035867</v>
+        <v>0.001495076820485504</v>
       </c>
       <c r="Q21">
-        <v>13.127927937471</v>
+        <v>7.293355030669167</v>
       </c>
       <c r="R21">
-        <v>78.767567624826</v>
+        <v>43.760130184015</v>
       </c>
       <c r="S21">
-        <v>3.89474429009681E-05</v>
+        <v>1.04517897836065E-05</v>
       </c>
       <c r="T21">
-        <v>2.649059778488381E-05</v>
+        <v>7.01279381530032E-06</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H22">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I22">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J22">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>20.760696</v>
+        <v>29.427447</v>
       </c>
       <c r="N22">
-        <v>62.282088</v>
+        <v>88.282341</v>
       </c>
       <c r="O22">
-        <v>0.4081126991777774</v>
+        <v>0.1263788668529656</v>
       </c>
       <c r="P22">
-        <v>0.4149157007231575</v>
+        <v>0.126503803280843</v>
       </c>
       <c r="Q22">
-        <v>783.656213306472</v>
+        <v>617.1168848417476</v>
       </c>
       <c r="R22">
-        <v>4701.937279838832</v>
+        <v>3702.701309050485</v>
       </c>
       <c r="S22">
-        <v>0.002324921782562925</v>
+        <v>0.0008843633588598607</v>
       </c>
       <c r="T22">
-        <v>0.001581325068754608</v>
+        <v>0.0005933775957892095</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H23">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I23">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J23">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>2.441373</v>
+        <v>0.578241</v>
       </c>
       <c r="N23">
-        <v>4.882746</v>
+        <v>1.156482</v>
       </c>
       <c r="O23">
-        <v>0.04799238545421348</v>
+        <v>0.002483308944466901</v>
       </c>
       <c r="P23">
-        <v>0.03252826042124975</v>
+        <v>0.001657175939929322</v>
       </c>
       <c r="Q23">
-        <v>92.154767857911</v>
+        <v>12.1261720259925</v>
       </c>
       <c r="R23">
-        <v>368.619071431644</v>
+        <v>48.50468810397</v>
       </c>
       <c r="S23">
-        <v>0.0002734012996029129</v>
+        <v>1.73774895589986E-05</v>
       </c>
       <c r="T23">
-        <v>0.0001239715767743895</v>
+        <v>7.773134479221577E-06</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H24">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I24">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J24">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.1802056666666666</v>
+        <v>194.164098</v>
       </c>
       <c r="N24">
-        <v>0.5406169999999999</v>
+        <v>582.492294</v>
       </c>
       <c r="O24">
-        <v>0.003542473770169563</v>
+        <v>0.8338555053303862</v>
       </c>
       <c r="P24">
-        <v>0.003601524749424765</v>
+        <v>0.8346798435349938</v>
       </c>
       <c r="Q24">
-        <v>6.802242581672998</v>
+        <v>4071.775010107665</v>
       </c>
       <c r="R24">
-        <v>40.813455490038</v>
+        <v>24430.65006064599</v>
       </c>
       <c r="S24">
-        <v>2.018063747836811E-05</v>
+        <v>0.005835083616912985</v>
       </c>
       <c r="T24">
-        <v>1.3726116804159E-05</v>
+        <v>0.003915141726695505</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>37.747107</v>
+        <v>20.9707925</v>
       </c>
       <c r="H25">
-        <v>75.494214</v>
+        <v>41.941585</v>
       </c>
       <c r="I25">
-        <v>0.005696764122378286</v>
+        <v>0.00699771552698574</v>
       </c>
       <c r="J25">
-        <v>0.003811196023670622</v>
+        <v>0.004690590957742906</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>27.07910933333334</v>
+        <v>8.221782333333335</v>
       </c>
       <c r="N25">
-        <v>81.23732800000001</v>
+        <v>24.665347</v>
       </c>
       <c r="O25">
-        <v>0.5323197450295892</v>
+        <v>0.03530919738971574</v>
       </c>
       <c r="P25">
-        <v>0.5411932058539365</v>
+        <v>0.03534410358173139</v>
       </c>
       <c r="Q25">
-        <v>1022.158037470032</v>
+        <v>172.4172912924992</v>
       </c>
       <c r="R25">
-        <v>6132.948224820192</v>
+        <v>1034.503747754995</v>
       </c>
       <c r="S25">
-        <v>0.003032500025118121</v>
+        <v>0.0002470837188194182</v>
       </c>
       <c r="T25">
-        <v>0.002062593394188079</v>
+        <v>0.0001657847326699979</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H26">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I26">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J26">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.060837</v>
+        <v>0.111657</v>
       </c>
       <c r="N26">
-        <v>0.121674</v>
+        <v>0.223314</v>
       </c>
       <c r="O26">
-        <v>0.001195930631606881</v>
+        <v>0.0004795212148781231</v>
       </c>
       <c r="P26">
-        <v>0.000810577400195534</v>
+        <v>0.0003199968420168896</v>
       </c>
       <c r="Q26">
-        <v>1.931577507944</v>
+        <v>30.38459126493701</v>
       </c>
       <c r="R26">
-        <v>11.589465047664</v>
+        <v>182.307547589622</v>
       </c>
       <c r="S26">
-        <v>5.730531509448225E-06</v>
+        <v>4.354283580416769E-05</v>
       </c>
       <c r="T26">
-        <v>3.897693763782954E-06</v>
+        <v>2.921575499988078E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H27">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I27">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J27">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.043359</v>
       </c>
       <c r="O27">
-        <v>0.0068367659366434</v>
+        <v>0.001493600267587414</v>
       </c>
       <c r="P27">
-        <v>0.006950730852035867</v>
+        <v>0.001495076820485504</v>
       </c>
       <c r="Q27">
-        <v>11.04223184964711</v>
+        <v>94.64113836001745</v>
       </c>
       <c r="R27">
-        <v>99.380086646824</v>
+        <v>851.770245240157</v>
       </c>
       <c r="S27">
-        <v>3.275967818469237E-05</v>
+        <v>0.0001356260978466811</v>
       </c>
       <c r="T27">
-        <v>3.342286657533095E-05</v>
+        <v>0.0001365007161258166</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H28">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I28">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J28">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>20.760696</v>
+        <v>29.427447</v>
       </c>
       <c r="N28">
-        <v>62.282088</v>
+        <v>88.282341</v>
       </c>
       <c r="O28">
-        <v>0.4081126991777774</v>
+        <v>0.1263788668529656</v>
       </c>
       <c r="P28">
-        <v>0.4149157007231575</v>
+        <v>0.126503803280843</v>
       </c>
       <c r="Q28">
-        <v>659.153039151552</v>
+        <v>8007.925603102329</v>
       </c>
       <c r="R28">
-        <v>5932.377352363968</v>
+        <v>72071.33042792096</v>
       </c>
       <c r="S28">
-        <v>0.001955550447689329</v>
+        <v>0.01147580978225142</v>
       </c>
       <c r="T28">
-        <v>0.00199513869843172</v>
+        <v>0.01154981436664038</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H29">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I29">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J29">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>2.441373</v>
+        <v>0.578241</v>
       </c>
       <c r="N29">
-        <v>4.882746</v>
+        <v>1.156482</v>
       </c>
       <c r="O29">
-        <v>0.04799238545421348</v>
+        <v>0.002483308944466901</v>
       </c>
       <c r="P29">
-        <v>0.03252826042124975</v>
+        <v>0.001657175939929322</v>
       </c>
       <c r="Q29">
-        <v>77.513703425576</v>
+        <v>157.353470338881</v>
       </c>
       <c r="R29">
-        <v>465.082220553456</v>
+        <v>944.1208220332861</v>
       </c>
       <c r="S29">
-        <v>0.0002299647402537295</v>
+        <v>0.0002254964123900672</v>
       </c>
       <c r="T29">
-        <v>0.0001564134378284281</v>
+        <v>0.0001513003876773159</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H30">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I30">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J30">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.1802056666666666</v>
+        <v>194.164098</v>
       </c>
       <c r="N30">
-        <v>0.5406169999999999</v>
+        <v>582.492294</v>
       </c>
       <c r="O30">
-        <v>0.003542473770169563</v>
+        <v>0.8338555053303862</v>
       </c>
       <c r="P30">
-        <v>0.003601524749424765</v>
+        <v>0.8346798435349938</v>
       </c>
       <c r="Q30">
-        <v>5.721538085990221</v>
+        <v>52836.78368624602</v>
       </c>
       <c r="R30">
-        <v>51.49384277391199</v>
+        <v>475531.0531762142</v>
       </c>
       <c r="S30">
-        <v>1.69744440227897E-05</v>
+        <v>0.07571809593915585</v>
       </c>
       <c r="T30">
-        <v>1.731807542691987E-05</v>
+        <v>0.07620638272039605</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>31.75004533333333</v>
+        <v>272.1243743333334</v>
       </c>
       <c r="H31">
-        <v>95.250136</v>
+        <v>816.3731230000001</v>
       </c>
       <c r="I31">
-        <v>0.004791692225282787</v>
+        <v>0.09080481624829614</v>
       </c>
       <c r="J31">
-        <v>0.004808539891246314</v>
+        <v>0.09130013538801972</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>27.07910933333334</v>
+        <v>8.221782333333335</v>
       </c>
       <c r="N31">
-        <v>81.23732800000001</v>
+        <v>24.665347</v>
       </c>
       <c r="O31">
-        <v>0.5323197450295892</v>
+        <v>0.03530919738971574</v>
       </c>
       <c r="P31">
-        <v>0.5411932058539365</v>
+        <v>0.03534410358173139</v>
       </c>
       <c r="Q31">
-        <v>859.7629489196231</v>
+        <v>2237.347373363188</v>
       </c>
       <c r="R31">
-        <v>7737.866540276608</v>
+        <v>20136.12636026868</v>
       </c>
       <c r="S31">
-        <v>0.002550712383622799</v>
+        <v>0.003206245180847955</v>
       </c>
       <c r="T31">
-        <v>0.002602349119220132</v>
+        <v>0.003226921442180268</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,46 +2403,46 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H32">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I32">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J32">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M32">
-        <v>0.060837</v>
+        <v>0.111657</v>
       </c>
       <c r="N32">
-        <v>0.121674</v>
+        <v>0.223314</v>
       </c>
       <c r="O32">
-        <v>0.001195930631606881</v>
+        <v>0.0004795212148781231</v>
       </c>
       <c r="P32">
-        <v>0.000810577400195534</v>
+        <v>0.0003199968420168896</v>
       </c>
       <c r="Q32">
-        <v>232.790894187978</v>
+        <v>198.098527306498</v>
       </c>
       <c r="R32">
-        <v>1396.745365127868</v>
+        <v>1188.591163838988</v>
       </c>
       <c r="S32">
-        <v>0.0006906352702754246</v>
+        <v>0.0002838863808416005</v>
       </c>
       <c r="T32">
-        <v>0.0004697443477211192</v>
+        <v>0.0001904780613686441</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H33">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I33">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J33">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.043359</v>
       </c>
       <c r="O33">
-        <v>0.0068367659366434</v>
+        <v>0.001493600267587414</v>
       </c>
       <c r="P33">
-        <v>0.006950730852035867</v>
+        <v>0.001495076820485504</v>
       </c>
       <c r="Q33">
-        <v>1330.793621036949</v>
+        <v>617.032165029153</v>
       </c>
       <c r="R33">
-        <v>11977.14258933254</v>
+        <v>5553.289485262377</v>
       </c>
       <c r="S33">
-        <v>0.003948148467540569</v>
+        <v>0.0008842419505823232</v>
       </c>
       <c r="T33">
-        <v>0.004028074961733477</v>
+        <v>0.0008899442024751118</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H34">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I34">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J34">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>20.760696</v>
+        <v>29.427447</v>
       </c>
       <c r="N34">
-        <v>62.282088</v>
+        <v>88.282341</v>
       </c>
       <c r="O34">
-        <v>0.4081126991777774</v>
+        <v>0.1263788668529656</v>
       </c>
       <c r="P34">
-        <v>0.4149157007231575</v>
+        <v>0.126503803280843</v>
       </c>
       <c r="Q34">
-        <v>79440.15953785983</v>
+        <v>52209.30092237856</v>
       </c>
       <c r="R34">
-        <v>714961.4358407385</v>
+        <v>469883.708301407</v>
       </c>
       <c r="S34">
-        <v>0.2356800777991342</v>
+        <v>0.07481887769005088</v>
       </c>
       <c r="T34">
-        <v>0.2404511958369853</v>
+        <v>0.07530136564105055</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H35">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I35">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J35">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>2.441373</v>
+        <v>0.578241</v>
       </c>
       <c r="N35">
-        <v>4.882746</v>
+        <v>1.156482</v>
       </c>
       <c r="O35">
-        <v>0.04799238545421348</v>
+        <v>0.002483308944466901</v>
       </c>
       <c r="P35">
-        <v>0.03252826042124975</v>
+        <v>0.001657175939929322</v>
       </c>
       <c r="Q35">
-        <v>9341.838087288763</v>
+        <v>1025.897977988274</v>
       </c>
       <c r="R35">
-        <v>56051.02852373257</v>
+        <v>6155.387867929643</v>
       </c>
       <c r="S35">
-        <v>0.02771501391748647</v>
+        <v>0.001470169758673687</v>
       </c>
       <c r="T35">
-        <v>0.01885071859935486</v>
+        <v>0.0009864336735168071</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H36">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I36">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J36">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.1802056666666666</v>
+        <v>194.164098</v>
       </c>
       <c r="N36">
-        <v>0.5406169999999999</v>
+        <v>582.492294</v>
       </c>
       <c r="O36">
-        <v>0.003542473770169563</v>
+        <v>0.8338555053303862</v>
       </c>
       <c r="P36">
-        <v>0.003601524749424765</v>
+        <v>0.8346798435349938</v>
       </c>
       <c r="Q36">
-        <v>689.5513960430992</v>
+        <v>344480.1657719135</v>
       </c>
       <c r="R36">
-        <v>6205.962564387894</v>
+        <v>3100321.491947222</v>
       </c>
       <c r="S36">
-        <v>0.002045735149719684</v>
+        <v>0.4936595383235608</v>
       </c>
       <c r="T36">
-        <v>0.002087149103604289</v>
+        <v>0.4968430233809536</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>3826.468994</v>
+        <v>1774.170247333333</v>
       </c>
       <c r="H37">
-        <v>11479.406982</v>
+        <v>5322.510741999999</v>
       </c>
       <c r="I37">
-        <v>0.5774877338391029</v>
+        <v>0.5920204821673095</v>
       </c>
       <c r="J37">
-        <v>0.5795181898826733</v>
+        <v>0.5952498161172183</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>27.07910933333334</v>
+        <v>8.221782333333335</v>
       </c>
       <c r="N37">
-        <v>81.23732800000001</v>
+        <v>24.665347</v>
       </c>
       <c r="O37">
-        <v>0.5323197450295892</v>
+        <v>0.03530919738971574</v>
       </c>
       <c r="P37">
-        <v>0.5411932058539365</v>
+        <v>0.03534410358173139</v>
       </c>
       <c r="Q37">
-        <v>103617.372249136</v>
+        <v>14586.84159585083</v>
       </c>
       <c r="R37">
-        <v>932556.3502422242</v>
+        <v>131281.5743626575</v>
       </c>
       <c r="S37">
-        <v>0.3074081232349465</v>
+        <v>0.02090376806360022</v>
       </c>
       <c r="T37">
-        <v>0.3136313070332743</v>
+        <v>0.02103857115785352</v>
       </c>
     </row>
   </sheetData>
